--- a/APIDocumentation.xlsx
+++ b/APIDocumentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\Java\testEDTS\tikete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA748A21-B33F-4C3F-8561-BCFE469FE8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2314D1E8-33F5-4A94-883A-1E7F2A66EDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4768138F-F215-40AE-9E59-9FED6AA5F600}"/>
+    <workbookView xWindow="3735" yWindow="15" windowWidth="21600" windowHeight="14745" xr2:uid="{4768138F-F215-40AE-9E59-9FED6AA5F600}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>API DOCUMENTATION</t>
   </si>
@@ -133,6 +133,76 @@
         "artist": "Avenged Sevenfold",
         "count": 999995
     }
+}</t>
+  </si>
+  <si>
+    <t>/purchase/create-order</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Create Order</t>
+  </si>
+  <si>
+    <t>Create new event order</t>
+  </si>
+  <si>
+    <t>{
+    "customerIdNo": "3333333333330003",
+    "eventIdNo": "90103",
+    "reservationCount": "5",
+    "paymentId": null
+}</t>
+  </si>
+  <si>
+    <t>{
+    "message": "Order queue created",
+    "status": "OK",
+    "data": null
+}</t>
+  </si>
+  <si>
+    <t>long paymentid</t>
+  </si>
+  <si>
+    <t>Get Payment detail</t>
+  </si>
+  <si>
+    <t>{
+    "message": "Success get payment detail",
+    "status": "OK",
+    "data": {
+        "paymentStatus": null,
+        "eventId": "90103",
+        "userid": "3333333333330003"
+    }
+}</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>This is an async process. This will make queue and return only success create queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once order is created, backend will generate payment detail. </t>
+  </si>
+  <si>
+    <t>Update data payment</t>
+  </si>
+  <si>
+    <t>/purchase/get-payment-detail</t>
+  </si>
+  <si>
+    <t>/purchase/update-payment-detail</t>
+  </si>
+  <si>
+    <t>{
+    "paymentId": 22,
+    "paymentAmount": 5000000,
+    "details": "payment details",
+    "paymentStatus": "paid"
 }</t>
   </si>
 </sst>
@@ -178,7 +248,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -192,9 +266,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA87EA21-2406-40E8-84D0-2258CE2AE4C0}" name="Table1" displayName="Table1" ref="A3:H9" totalsRowShown="0">
-  <autoFilter ref="A3:H9" xr:uid="{CA87EA21-2406-40E8-84D0-2258CE2AE4C0}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA87EA21-2406-40E8-84D0-2258CE2AE4C0}" name="Table1" displayName="Table1" ref="A3:I9" totalsRowShown="0">
+  <autoFilter ref="A3:I9" xr:uid="{CA87EA21-2406-40E8-84D0-2258CE2AE4C0}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D892D486-F13B-4354-86B2-AF8CF449FFF8}" name="No"/>
     <tableColumn id="2" xr3:uid="{37D91CD4-BD87-456C-984B-A2E41E1E3E70}" name="API Name"/>
     <tableColumn id="3" xr3:uid="{4DFAEA77-30AB-4A8C-B8A6-3D9D9CEF31C1}" name="Objective"/>
@@ -203,6 +277,7 @@
     <tableColumn id="6" xr3:uid="{EA51DFAC-4A06-4CA6-9BBD-626A3C20B1D9}" name="REQ Param"/>
     <tableColumn id="7" xr3:uid="{3E42EE4E-10BD-4ABD-A07E-EDCCAC9D4D9C}" name="REQ Object sample"/>
     <tableColumn id="8" xr3:uid="{0EC88F9D-98DE-401D-B2EB-A7317DF13638}" name="Response Sample"/>
+    <tableColumn id="9" xr3:uid="{369851DC-CF89-47DC-AFD3-1CC8051F28F2}" name="Remarks" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,29 +580,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CD8831-CA89-4A8E-AB44-1A1BA2FA3FD7}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
     <col min="8" max="8" width="43.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -552,8 +628,11 @@
       <c r="H3" t="s">
         <v>12</v>
       </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -572,8 +651,9 @@
       <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -595,26 +675,77 @@
       <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
